--- a/WorkBot/refactor/data/orders/FingerLakes Farms/FingerLakes Farms_Easthill_2025-08-08.xlsx
+++ b/WorkBot/refactor/data/orders/FingerLakes Farms/FingerLakes Farms_Easthill_2025-08-08.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>9.25</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>13.00</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>47.50</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>9.25</t>
         </is>
       </c>
     </row>
